--- a/data.xlsx
+++ b/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\playground\Dyson_Sphere_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\playground\Dyson_Sphere_Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADB0587-8C9D-4208-B0EE-59B3A051C987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058500D1-DCE6-431C-9FFA-744DC2EDFC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="712" windowWidth="15390" windowHeight="10553" xr2:uid="{1ED69591-9196-4AC8-BCB5-DD2E47C776AD}"/>
   </bookViews>
@@ -34,48 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="99">
-  <si>
-    <t>生产物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="189">
   <si>
     <t>蓝糖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产出数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>磁线圈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产出时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>磁铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,10 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生产类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>制造</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,6 +385,338 @@
   </si>
   <si>
     <t>硫酸源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产物品/Production</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出时间/Production time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产类型/Production type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料1/Ingredient 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量/Quantity</t>
+  </si>
+  <si>
+    <t>原料2/Ingredient 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料3/Ingredient 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料4/Ingredient 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料5/Ingredient 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料6/Ingredient 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron ore</t>
+  </si>
+  <si>
+    <t>Copper ore</t>
+  </si>
+  <si>
+    <t>Silicon ore</t>
+  </si>
+  <si>
+    <t>Titanium ore</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Spiniform stalagmite crystal</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Optical grating crystal</t>
+  </si>
+  <si>
+    <t>Kimberlite ore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organic crystal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plastic</t>
+  </si>
+  <si>
+    <t>Graphene</t>
+  </si>
+  <si>
+    <t>Carbon nanotube</t>
+  </si>
+  <si>
+    <t>Critical photon</t>
+  </si>
+  <si>
+    <t>Refined oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue matrix</t>
+  </si>
+  <si>
+    <t>Red matrix</t>
+  </si>
+  <si>
+    <t>Yellow matrix</t>
+  </si>
+  <si>
+    <t>Purple matrix</t>
+  </si>
+  <si>
+    <t>Green matrix</t>
+  </si>
+  <si>
+    <t>White matrix</t>
+  </si>
+  <si>
+    <t>Strange matter</t>
+  </si>
+  <si>
+    <t>Deuterium</t>
+  </si>
+  <si>
+    <t>Antimatter</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>Energetic graphite</t>
+  </si>
+  <si>
+    <t>Iron ingot</t>
+  </si>
+  <si>
+    <t>Copper ingot</t>
+  </si>
+  <si>
+    <t>High-purity silicon</t>
+  </si>
+  <si>
+    <t>Titanium ingot</t>
+  </si>
+  <si>
+    <t>Stone brick</t>
+  </si>
+  <si>
+    <t>Magnet</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Crystal silicon</t>
+  </si>
+  <si>
+    <t>Titanium alloy</t>
+  </si>
+  <si>
+    <t>Magnetic coil</t>
+  </si>
+  <si>
+    <t>Circuit board</t>
+  </si>
+  <si>
+    <t>Titanium crystal</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>Microcrystalline component</t>
+  </si>
+  <si>
+    <t>Particle broadband</t>
+  </si>
+  <si>
+    <t>Quantum chip</t>
+  </si>
+  <si>
+    <t>Plane Filter</t>
+  </si>
+  <si>
+    <t>Titanium glass</t>
+  </si>
+  <si>
+    <t>Graviton lens</t>
+  </si>
+  <si>
+    <t>Prism</t>
+  </si>
+  <si>
+    <t>Plasma exciter</t>
+  </si>
+  <si>
+    <t>Accumulator</t>
+  </si>
+  <si>
+    <t>Super-magnetic ring</t>
+  </si>
+  <si>
+    <t>Electromagnetic turbine</t>
+  </si>
+  <si>
+    <t>Electric motor</t>
+  </si>
+  <si>
+    <t>Gear</t>
+  </si>
+  <si>
+    <t>Casimir crystal</t>
+  </si>
+  <si>
+    <t>Particle container</t>
+  </si>
+  <si>
+    <t>Solar sail</t>
+  </si>
+  <si>
+    <t>Photon combiner</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Sulfuric acid</t>
+  </si>
+  <si>
+    <t>Collect</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Chemical</t>
+  </si>
+  <si>
+    <t>Receive</t>
+  </si>
+  <si>
+    <t>Refinery</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Particle collider</t>
+  </si>
+  <si>
+    <t>Smelting</t>
+  </si>
+  <si>
+    <t>Assembling</t>
+  </si>
+  <si>
+    <t>Pump</t>
+  </si>
+  <si>
+    <t>Orbital Collector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron ore mining meachine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copper ore mining meachine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silicon ore mining meachine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Titanium ore mining meachine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone mining meachine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spiniform stalagmite crystal mining meachine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coal mining meachine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optical grating crystal mining meachine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kimberlite ore mining meachine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Organic crystal mining meachine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire ice</t>
+  </si>
+  <si>
+    <t>Ray receiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crude oil</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Organic crystal</t>
+  </si>
+  <si>
+    <t>Water source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sulfuric acid source</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microcrystalline component</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydrogen气</t>
+  </si>
+  <si>
+    <t>产出数量/Quantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,11 +1081,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA858F3-0054-4BDA-853C-216586212872}">
-  <dimension ref="A1:P61"/>
+  <dimension ref="A1:P121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -807,57 +1095,57 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>93</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="L1" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="M1" t="s">
-        <v>6</v>
+        <v>96</v>
       </c>
       <c r="N1" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="O1" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="P1" t="s">
-        <v>2</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -866,10 +1154,10 @@
         <v>0.5</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -877,7 +1165,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -887,10 +1175,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -898,7 +1186,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -908,10 +1196,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -919,7 +1207,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -929,10 +1217,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -940,7 +1228,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -950,10 +1238,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -961,7 +1249,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -971,10 +1259,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -982,7 +1270,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -992,10 +1280,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1003,7 +1291,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1013,10 +1301,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1024,7 +1312,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1034,10 +1322,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1045,7 +1333,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1055,10 +1343,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1066,7 +1354,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1076,10 +1364,10 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1087,7 +1375,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1096,16 +1384,16 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1113,7 +1401,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1122,16 +1410,16 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -1139,7 +1427,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1148,10 +1436,10 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1159,7 +1447,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1168,10 +1456,10 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1179,7 +1467,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1188,16 +1476,16 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -1205,7 +1493,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1214,16 +1502,16 @@
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1231,7 +1519,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1240,16 +1528,16 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -1257,7 +1545,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1266,16 +1554,16 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -1283,7 +1571,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1292,16 +1580,16 @@
         <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -1309,7 +1597,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1318,16 +1606,16 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1335,7 +1623,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1344,40 +1632,40 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
         <v>16</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
         <v>19</v>
       </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>29</v>
-      </c>
       <c r="N23">
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="P23">
         <v>1</v>
@@ -1385,7 +1673,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1394,22 +1682,22 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H24">
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="J24">
         <v>10</v>
@@ -1417,7 +1705,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>5</v>
@@ -1426,10 +1714,10 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -1437,7 +1725,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1446,16 +1734,16 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H26">
         <v>-2</v>
@@ -1463,7 +1751,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1472,10 +1760,10 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -1483,7 +1771,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -1492,10 +1780,10 @@
         <v>1.5</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1503,7 +1791,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1512,10 +1800,10 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -1523,7 +1811,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1532,10 +1820,10 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1543,7 +1831,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1552,10 +1840,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1563,7 +1851,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1572,10 +1860,10 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -1583,7 +1871,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1592,10 +1880,10 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -1603,7 +1891,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1612,10 +1900,10 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1623,7 +1911,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1632,10 +1920,10 @@
         <v>1.5</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1643,7 +1931,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1652,10 +1940,10 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -1663,7 +1951,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1672,10 +1960,10 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1683,7 +1971,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -1692,22 +1980,22 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F38">
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H38">
         <v>4</v>
       </c>
       <c r="I38" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="J38">
         <v>8</v>
@@ -1715,7 +2003,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1724,16 +2012,16 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -1741,7 +2029,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1750,16 +2038,16 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -1767,7 +2055,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1776,16 +2064,16 @@
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H41">
         <v>3</v>
@@ -1793,7 +2081,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1802,16 +2090,16 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -1819,7 +2107,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1828,16 +2116,16 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -1845,7 +2133,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1854,22 +2142,22 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F44">
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H44">
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -1877,7 +2165,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1886,16 +2174,16 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F45">
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -1903,7 +2191,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1912,16 +2200,16 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -1929,7 +2217,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1938,22 +2226,22 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H47">
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J47">
         <v>2</v>
@@ -1961,7 +2249,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1970,16 +2258,16 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E48" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F48">
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -1987,7 +2275,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -1996,10 +2284,10 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -2007,7 +2295,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2016,16 +2304,16 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F50">
         <v>4</v>
       </c>
       <c r="G50" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -2033,7 +2321,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -2042,22 +2330,22 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F51">
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H51">
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J51">
         <v>6</v>
@@ -2065,7 +2353,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2074,22 +2362,22 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2097,7 +2385,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -2106,16 +2394,16 @@
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E53" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -2123,7 +2411,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -2132,22 +2420,22 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F54">
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2155,7 +2443,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -2164,10 +2452,10 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2175,7 +2463,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2184,22 +2472,22 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F56">
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J56">
         <v>12</v>
@@ -2207,7 +2495,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -2216,22 +2504,22 @@
         <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="H57">
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="J57">
         <v>2</v>
@@ -2239,7 +2527,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -2248,16 +2536,16 @@
         <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F58">
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -2265,7 +2553,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2274,16 +2562,16 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E59" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="F59">
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -2291,7 +2579,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -2301,10 +2589,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2312,7 +2600,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -2322,12 +2610,1479 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E61" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>98</v>
       </c>
-      <c r="F61">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+      <c r="D62" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" t="s">
+        <v>168</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <f>1/4.5</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D63" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64:C72" si="1">1/4.5</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D64" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" t="s">
+        <v>170</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>101</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E65" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D66" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D67" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D68" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" t="s">
+        <v>174</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D69" t="s">
+        <v>159</v>
+      </c>
+      <c r="E69" t="s">
+        <v>175</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D70" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" t="s">
+        <v>176</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D71" t="s">
+        <v>159</v>
+      </c>
+      <c r="E71" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D72" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" t="s">
+        <v>178</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>160</v>
+      </c>
+      <c r="E73" t="s">
+        <v>113</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>125</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74" t="s">
+        <v>160</v>
+      </c>
+      <c r="E74" t="s">
+        <v>179</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>182</v>
+      </c>
+      <c r="H74">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" t="s">
+        <v>104</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" t="s">
+        <v>180</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>162</v>
+      </c>
+      <c r="E77" t="s">
+        <v>181</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" t="s">
+        <v>182</v>
+      </c>
+      <c r="H77">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78" t="s">
+        <v>135</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>136</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>115</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79" t="s">
+        <v>125</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="s">
+        <v>182</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" t="s">
+        <v>124</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>137</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" t="s">
+        <v>138</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81" t="s">
+        <v>140</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>24</v>
+      </c>
+      <c r="D82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" t="s">
+        <v>144</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>15</v>
+      </c>
+      <c r="D83" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" t="s">
+        <v>114</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>115</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83" t="s">
+        <v>116</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" t="s">
+        <v>117</v>
+      </c>
+      <c r="M83" t="s">
+        <v>118</v>
+      </c>
+      <c r="O83" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>8</v>
+      </c>
+      <c r="D84" t="s">
+        <v>164</v>
+      </c>
+      <c r="E84" t="s">
+        <v>153</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>126</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84" t="s">
+        <v>121</v>
+      </c>
+      <c r="J84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>164</v>
+      </c>
+      <c r="E85" t="s">
+        <v>182</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>164</v>
+      </c>
+      <c r="E86" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86" t="s">
+        <v>182</v>
+      </c>
+      <c r="H86">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87" t="s">
+        <v>165</v>
+      </c>
+      <c r="E87" t="s">
+        <v>126</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>1.5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>165</v>
+      </c>
+      <c r="E88" t="s">
+        <v>107</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>125</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>165</v>
+      </c>
+      <c r="E89" t="s">
+        <v>105</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>165</v>
+      </c>
+      <c r="E90" t="s">
+        <v>99</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>165</v>
+      </c>
+      <c r="E91" t="s">
+        <v>100</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>165</v>
+      </c>
+      <c r="E92" t="s">
+        <v>101</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>165</v>
+      </c>
+      <c r="E93" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>165</v>
+      </c>
+      <c r="E94" t="s">
+        <v>103</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1.5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>165</v>
+      </c>
+      <c r="E95" t="s">
+        <v>99</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>165</v>
+      </c>
+      <c r="E96" t="s">
+        <v>103</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>165</v>
+      </c>
+      <c r="E97" t="s">
+        <v>128</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <v>12</v>
+      </c>
+      <c r="D98" t="s">
+        <v>165</v>
+      </c>
+      <c r="E98" t="s">
+        <v>129</v>
+      </c>
+      <c r="F98">
+        <v>4</v>
+      </c>
+      <c r="G98" t="s">
+        <v>123</v>
+      </c>
+      <c r="H98">
+        <v>4</v>
+      </c>
+      <c r="I98" t="s">
+        <v>157</v>
+      </c>
+      <c r="J98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>166</v>
+      </c>
+      <c r="E99" t="s">
+        <v>131</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99" t="s">
+        <v>127</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>166</v>
+      </c>
+      <c r="E100" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>127</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>166</v>
+      </c>
+      <c r="E101" t="s">
+        <v>183</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="s">
+        <v>129</v>
+      </c>
+      <c r="H101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>166</v>
+      </c>
+      <c r="E102" t="s">
+        <v>136</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102" t="s">
+        <v>186</v>
+      </c>
+      <c r="H102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103" t="s">
+        <v>166</v>
+      </c>
+      <c r="E103" t="s">
+        <v>128</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="s">
+        <v>127</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>140</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>166</v>
+      </c>
+      <c r="E104" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104" t="s">
+        <v>133</v>
+      </c>
+      <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104" t="s">
+        <v>109</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>141</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>166</v>
+      </c>
+      <c r="E105" t="s">
+        <v>138</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" t="s">
+        <v>142</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>142</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106">
+        <v>12</v>
+      </c>
+      <c r="D106" t="s">
+        <v>166</v>
+      </c>
+      <c r="E106" t="s">
+        <v>152</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="s">
+        <v>143</v>
+      </c>
+      <c r="H106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>143</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
+        <v>166</v>
+      </c>
+      <c r="E107" t="s">
+        <v>132</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107" t="s">
+        <v>129</v>
+      </c>
+      <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107" t="s">
+        <v>156</v>
+      </c>
+      <c r="J107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>144</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>166</v>
+      </c>
+      <c r="E108" t="s">
+        <v>124</v>
+      </c>
+      <c r="F108">
+        <v>4</v>
+      </c>
+      <c r="G108" t="s">
+        <v>120</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>145</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>166</v>
+      </c>
+      <c r="E109" t="s">
+        <v>132</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>146</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>166</v>
+      </c>
+      <c r="E110" t="s">
+        <v>135</v>
+      </c>
+      <c r="F110">
+        <v>4</v>
+      </c>
+      <c r="G110" t="s">
+        <v>145</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>147</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
+        <v>166</v>
+      </c>
+      <c r="E111" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111">
+        <v>6</v>
+      </c>
+      <c r="G111" t="s">
+        <v>148</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111" t="s">
+        <v>133</v>
+      </c>
+      <c r="J111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112" t="s">
+        <v>166</v>
+      </c>
+      <c r="E112" t="s">
+        <v>149</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112" t="s">
+        <v>131</v>
+      </c>
+      <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112" t="s">
+        <v>125</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>149</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>166</v>
+      </c>
+      <c r="E113" t="s">
+        <v>150</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113" t="s">
+        <v>135</v>
+      </c>
+      <c r="H113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>150</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>166</v>
+      </c>
+      <c r="E114" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>151</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114" t="s">
+        <v>135</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>151</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>166</v>
+      </c>
+      <c r="E115" t="s">
+        <v>126</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+      <c r="D116" t="s">
+        <v>166</v>
+      </c>
+      <c r="E116" t="s">
+        <v>106</v>
+      </c>
+      <c r="F116">
+        <v>4</v>
+      </c>
+      <c r="G116" t="s">
+        <v>110</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116" t="s">
+        <v>187</v>
+      </c>
+      <c r="J116">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>4</v>
+      </c>
+      <c r="D117" t="s">
+        <v>166</v>
+      </c>
+      <c r="E117" t="s">
+        <v>149</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117" t="s">
+        <v>127</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117" t="s">
+        <v>110</v>
+      </c>
+      <c r="J117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>154</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118" t="s">
+        <v>166</v>
+      </c>
+      <c r="E118" t="s">
+        <v>110</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" t="s">
+        <v>155</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>155</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119" t="s">
+        <v>166</v>
+      </c>
+      <c r="E119" t="s">
+        <v>106</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="s">
+        <v>136</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>156</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
+        <f>1/1.5</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D120" t="s">
+        <v>167</v>
+      </c>
+      <c r="E120" t="s">
+        <v>184</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <f>1/1.5</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D121" t="s">
+        <v>167</v>
+      </c>
+      <c r="E121" t="s">
+        <v>185</v>
+      </c>
+      <c r="F121">
         <v>1</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\playground\Dyson_Sphere_Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058500D1-DCE6-431C-9FFA-744DC2EDFC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1321ADE-BBFE-4726-84E9-8D7E5DB811F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="712" windowWidth="15390" windowHeight="10553" xr2:uid="{1ED69591-9196-4AC8-BCB5-DD2E47C776AD}"/>
+    <workbookView xWindow="2205" yWindow="83" windowWidth="15390" windowHeight="10552" xr2:uid="{1ED69591-9196-4AC8-BCB5-DD2E47C776AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,45 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生产物品/Production</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出时间/Production time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产类型/Production type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料1/Ingredient 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量/Quantity</t>
-  </si>
-  <si>
-    <t>原料2/Ingredient 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料3/Ingredient 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料4/Ingredient 4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料5/Ingredient 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原料6/Ingredient 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Hydrogen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -716,8 +677,37 @@
     <t>Hydrogen气</t>
   </si>
   <si>
-    <t>产出数量/Quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>生产物品 / Production</t>
+  </si>
+  <si>
+    <t>产出数量 / Quantity</t>
+  </si>
+  <si>
+    <t>产出时间 / Production time</t>
+  </si>
+  <si>
+    <t>生产类型 / Production type</t>
+  </si>
+  <si>
+    <t>原料1 / Ingredient 1</t>
+  </si>
+  <si>
+    <t>数量 / Quantity</t>
+  </si>
+  <si>
+    <t>原料2 / Ingredient 2</t>
+  </si>
+  <si>
+    <t>原料3 / Ingredient 3</t>
+  </si>
+  <si>
+    <t>原料4 / Ingredient 4</t>
+  </si>
+  <si>
+    <t>原料5 / Ingredient 5</t>
+  </si>
+  <si>
+    <t>原料6 / Ingredient 6</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1074,7 @@
   <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1095,52 +1085,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" t="s">
+        <v>183</v>
+      </c>
+      <c r="K1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O1" t="s">
         <v>188</v>
       </c>
-      <c r="C1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M1" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O1" t="s">
-        <v>97</v>
-      </c>
       <c r="P1" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
@@ -1171,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <f>1/4.5</f>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D3" t="s">
@@ -1192,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C12" si="0">1/4.5</f>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D4" t="s">
@@ -1213,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D5" t="s">
@@ -1234,7 +1224,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D6" t="s">
@@ -1255,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D7" t="s">
@@ -1276,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D8" t="s">
@@ -1297,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D9" t="s">
@@ -1318,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D10" t="s">
@@ -1339,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D11" t="s">
@@ -1360,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D12" t="s">
@@ -2585,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <f>1/1.5</f>
+        <f>1 / 1.5</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="D60" t="s">
@@ -2606,7 +2596,7 @@
         <v>1</v>
       </c>
       <c r="C61">
-        <f>1/1.5</f>
+        <f>1 / 1.5</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="D61" t="s">
@@ -2621,7 +2611,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -2630,10 +2620,10 @@
         <v>0.5</v>
       </c>
       <c r="D62" t="s">
+        <v>148</v>
+      </c>
+      <c r="E62" t="s">
         <v>158</v>
-      </c>
-      <c r="E62" t="s">
-        <v>168</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2641,20 +2631,20 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63">
-        <f>1/4.5</f>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D63" t="s">
+        <v>149</v>
+      </c>
+      <c r="E63" t="s">
         <v>159</v>
-      </c>
-      <c r="E63" t="s">
-        <v>169</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2662,20 +2652,20 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64">
-        <f t="shared" ref="C64:C72" si="1">1/4.5</f>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2683,20 +2673,20 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <f t="shared" si="1"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E65" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2704,20 +2694,20 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D66" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E66" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2725,20 +2715,20 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2746,20 +2736,20 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E68" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -2767,20 +2757,20 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D69" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E69" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -2788,20 +2778,20 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D70" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E70" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2809,20 +2799,20 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E71" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -2830,20 +2820,20 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
+        <f>1 / 4.5</f>
         <v>0.22222222222222221</v>
       </c>
       <c r="D72" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E72" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -2851,7 +2841,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2860,16 +2850,16 @@
         <v>3</v>
       </c>
       <c r="D73" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E73" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -2877,7 +2867,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -2886,16 +2876,16 @@
         <v>2</v>
       </c>
       <c r="D74" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E74" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F74">
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H74">
         <v>-1</v>
@@ -2903,7 +2893,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -2912,10 +2902,10 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E75" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -2923,7 +2913,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -2932,10 +2922,10 @@
         <v>5</v>
       </c>
       <c r="D76" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E76" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -2943,7 +2933,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -2952,16 +2942,16 @@
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E77" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="F77">
         <v>2</v>
       </c>
       <c r="G77" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H77">
         <v>-1</v>
@@ -2969,7 +2959,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2978,16 +2968,16 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E78" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -2995,7 +2985,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -3004,16 +2994,16 @@
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E79" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F79">
         <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -3021,7 +3011,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -3030,16 +3020,16 @@
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E80" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F80">
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -3047,7 +3037,7 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -3056,16 +3046,16 @@
         <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E81" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F81">
         <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -3073,7 +3063,7 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -3082,16 +3072,16 @@
         <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E82" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -3099,7 +3089,7 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3108,39 +3098,39 @@
         <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E83" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F83">
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M83" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="O83" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -3149,22 +3139,22 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="F84">
         <v>2</v>
       </c>
       <c r="G84" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H84">
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="J84">
         <v>10</v>
@@ -3172,7 +3162,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -3181,10 +3171,10 @@
         <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E85" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="F85">
         <v>10</v>
@@ -3192,7 +3182,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -3201,16 +3191,16 @@
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E86" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="F86">
         <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H86">
         <v>-2</v>
@@ -3218,7 +3208,7 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -3227,10 +3217,10 @@
         <v>3</v>
       </c>
       <c r="D87" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E87" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F87">
         <v>3</v>
@@ -3238,7 +3228,7 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -3247,10 +3237,10 @@
         <v>1.5</v>
       </c>
       <c r="D88" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E88" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -3258,7 +3248,7 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -3267,10 +3257,10 @@
         <v>2</v>
       </c>
       <c r="D89" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E89" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -3278,7 +3268,7 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -3287,10 +3277,10 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E90" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3298,7 +3288,7 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -3307,10 +3297,10 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E91" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -3318,7 +3308,7 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -3327,10 +3317,10 @@
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E92" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -3338,7 +3328,7 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -3347,10 +3337,10 @@
         <v>2</v>
       </c>
       <c r="D93" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E93" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -3358,7 +3348,7 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -3367,10 +3357,10 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E94" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -3378,7 +3368,7 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -3387,10 +3377,10 @@
         <v>1.5</v>
       </c>
       <c r="D95" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E95" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -3398,7 +3388,7 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -3407,10 +3397,10 @@
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E96" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -3418,7 +3408,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -3427,10 +3417,10 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E97" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -3438,7 +3428,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B98">
         <v>4</v>
@@ -3447,22 +3437,22 @@
         <v>12</v>
       </c>
       <c r="D98" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="E98" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F98">
         <v>4</v>
       </c>
       <c r="G98" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H98">
         <v>4</v>
       </c>
       <c r="I98" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="J98">
         <v>8</v>
@@ -3470,7 +3460,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -3479,16 +3469,16 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E99" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F99">
         <v>2</v>
       </c>
       <c r="G99" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -3496,7 +3486,7 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B100">
         <v>2</v>
@@ -3505,16 +3495,16 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E100" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F100">
         <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -3522,7 +3512,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -3531,16 +3521,16 @@
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E101" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="G101" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -3548,7 +3538,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -3557,16 +3547,16 @@
         <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E102" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F102">
         <v>2</v>
       </c>
       <c r="G102" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -3574,7 +3564,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3583,16 +3573,16 @@
         <v>2</v>
       </c>
       <c r="D103" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E103" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F103">
         <v>2</v>
       </c>
       <c r="G103" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -3600,7 +3590,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -3609,22 +3599,22 @@
         <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E104" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F104">
         <v>2</v>
       </c>
       <c r="G104" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="H104">
         <v>2</v>
       </c>
       <c r="I104" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -3632,7 +3622,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -3641,16 +3631,16 @@
         <v>6</v>
       </c>
       <c r="D105" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E105" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="F105">
         <v>2</v>
       </c>
       <c r="G105" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -3658,7 +3648,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -3667,16 +3657,16 @@
         <v>12</v>
       </c>
       <c r="D106" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E106" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F106">
         <v>1</v>
       </c>
       <c r="G106" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -3684,7 +3674,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -3693,22 +3683,22 @@
         <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E107" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F107">
         <v>2</v>
       </c>
       <c r="G107" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="J107">
         <v>2</v>
@@ -3716,7 +3706,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -3725,16 +3715,16 @@
         <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E108" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F108">
         <v>4</v>
       </c>
       <c r="G108" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -3742,7 +3732,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -3751,10 +3741,10 @@
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E109" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F109">
         <v>3</v>
@@ -3762,7 +3752,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3771,16 +3761,16 @@
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E110" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="F110">
         <v>4</v>
       </c>
       <c r="G110" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -3788,7 +3778,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3797,22 +3787,22 @@
         <v>5</v>
       </c>
       <c r="D111" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E111" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F111">
         <v>6</v>
       </c>
       <c r="G111" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="J111">
         <v>6</v>
@@ -3820,7 +3810,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3829,22 +3819,22 @@
         <v>3</v>
       </c>
       <c r="D112" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E112" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F112">
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H112">
         <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J112">
         <v>1</v>
@@ -3852,7 +3842,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3861,16 +3851,16 @@
         <v>2</v>
       </c>
       <c r="D113" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E113" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="F113">
         <v>2</v>
       </c>
       <c r="G113" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="H113">
         <v>2</v>
@@ -3878,7 +3868,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -3887,22 +3877,22 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E114" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F114">
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H114">
         <v>1</v>
       </c>
       <c r="I114" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -3910,7 +3900,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -3919,10 +3909,10 @@
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E115" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -3930,7 +3920,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -3939,22 +3929,22 @@
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E116" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F116">
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J116">
         <v>12</v>
@@ -3962,7 +3952,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -3971,22 +3961,22 @@
         <v>4</v>
       </c>
       <c r="D117" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E117" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F117">
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="H117">
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -3994,7 +3984,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -4003,16 +3993,16 @@
         <v>4</v>
       </c>
       <c r="D118" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E118" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F118">
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -4020,7 +4010,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -4029,16 +4019,16 @@
         <v>3</v>
       </c>
       <c r="D119" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E119" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F119">
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -4046,20 +4036,20 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
       <c r="C120">
-        <f>1/1.5</f>
+        <f>1 / 1.5</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="D120" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E120" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -4067,20 +4057,20 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
+        <v>147</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <f>1 / 1.5</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D121" t="s">
         <v>157</v>
       </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-      <c r="C121">
-        <f>1/1.5</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D121" t="s">
-        <v>167</v>
-      </c>
       <c r="E121" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F121">
         <v>1</v>
